--- a/biology/Botanique/Cymbidium_canaliculatum/Cymbidium_canaliculatum.xlsx
+++ b/biology/Botanique/Cymbidium_canaliculatum/Cymbidium_canaliculatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cymbidium canaliculatum, la Cymbidie à feuilles canaliculées, est une espèce d'orchidées épiphytes originaire d'Australie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une grande orchidée épiphyte avec pseudobulbe gris-vert, étroit, ellipsoïde entouré de plusieurs gaines à la base avec 2 à 6 feuilles, linéaires, dressées, rigides, et rainurées. Les fleurs sont portées sur une et souvent plusieurs tiges arquées de 45 cm de long. Elles sont nombreuses, petites, cireuses, parfumées, de 4 cm de diamètre. La floraison a lieu au printemps.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel se situe dans le Territoire du Nord, en Australie-Occidentale, au Queensland et dans la Nouvelle-Galles du Sud, dans les forêts sclérophylles à une altitude comprise entre 500 et 900 mètres.
 </t>
@@ -573,7 +589,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cymbidium hillii F. Muell. ex Regel (1879)*Cymbidium sparkesii Rendle (1898)
 Cymbidium canaliculatum var. sparkesii (Rendle) F.M. Bailey (1913)
